--- a/Documentation/benchmark.xlsx
+++ b/Documentation/benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescomarino/Idea Projects/SABD_project1_BallettiMarino/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E5FD11-A619-0746-A3D2-09BA33EC6EAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FDFF6A-975E-604E-B3BB-AB64016E4BA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="21160" xr2:uid="{7698990D-6E27-C648-BDDB-21BCFF348DA1}"/>
+    <workbookView xWindow="40960" yWindow="-2720" windowWidth="18000" windowHeight="31540" activeTab="5" xr2:uid="{7698990D-6E27-C648-BDDB-21BCFF348DA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Query 1" sheetId="1" r:id="rId1"/>
@@ -523,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B78D27-A43B-874B-9649-65DC36291C45}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -566,7 +566,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="9" t="s">
@@ -574,10 +574,10 @@
       </c>
       <c r="D3" s="8">
         <f>AVERAGE(A3:A101)</f>
-        <v>36.616161616161619</v>
+        <v>35.666666666666664</v>
       </c>
       <c r="E3" s="5">
-        <v>732</v>
+        <v>1453</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="3" t="s">
@@ -585,12 +585,12 @@
       </c>
       <c r="H3" s="2">
         <f>AVERAGE(E3:E8)</f>
-        <v>615.83333333333337</v>
+        <v>1275.3333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="9" t="s">
@@ -598,10 +598,10 @@
       </c>
       <c r="D4" s="8">
         <f>STDEV(A3:A101)</f>
-        <v>9.6019843513628835</v>
+        <v>9.077894208752717</v>
       </c>
       <c r="E4" s="5">
-        <v>601</v>
+        <v>1277</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="3" t="s">
@@ -609,18 +609,18 @@
       </c>
       <c r="H4" s="2">
         <f>STDEV(E3:E8)</f>
-        <v>58.867365039269984</v>
+        <v>92.530355379554592</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="8"/>
       <c r="E5" s="5">
-        <v>605</v>
+        <v>1228</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -634,7 +634,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="8"/>
       <c r="E6" s="5">
-        <v>584</v>
+        <v>1219</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -642,13 +642,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="8"/>
       <c r="E7" s="5">
-        <v>567</v>
+        <v>1199</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -656,13 +656,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="8"/>
       <c r="E8" s="5">
-        <v>606</v>
+        <v>1276</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -670,7 +670,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -679,7 +679,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -688,7 +688,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -706,7 +706,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -715,7 +715,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -724,7 +724,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -742,7 +742,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -751,7 +751,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -760,7 +760,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -769,7 +769,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -778,7 +778,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -787,7 +787,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -796,7 +796,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -805,7 +805,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -814,7 +814,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -823,7 +823,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -832,7 +832,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -841,7 +841,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -859,7 +859,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -868,7 +868,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -877,7 +877,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -886,7 +886,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -895,7 +895,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -904,7 +904,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -913,7 +913,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -922,7 +922,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -931,7 +931,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -940,7 +940,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -949,7 +949,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -958,7 +958,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -967,7 +967,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -985,7 +985,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -994,7 +994,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -1048,7 +1048,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -1066,7 +1066,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -1075,7 +1075,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -1156,7 +1156,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -1165,7 +1165,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -1192,7 +1192,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -1201,7 +1201,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -1228,7 +1228,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -1264,7 +1264,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -1273,7 +1273,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -1291,7 +1291,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -1318,7 +1318,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="6">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -1408,7 +1408,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -1462,7 +1462,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="6">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -1480,7 +1480,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -1489,7 +1489,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -1561,7 +1561,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="9" t="s">
@@ -1569,10 +1569,10 @@
       </c>
       <c r="D3" s="8">
         <f>AVERAGE(A3:A101)</f>
-        <v>37.434343434343432</v>
+        <v>35.484848484848484</v>
       </c>
       <c r="E3" s="5">
-        <v>732</v>
+        <v>3936</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="3" t="s">
@@ -1580,12 +1580,12 @@
       </c>
       <c r="H3" s="2">
         <f>AVERAGE(E3:E8)</f>
-        <v>615.83333333333337</v>
+        <v>3631.6666666666665</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="9" t="s">
@@ -1593,10 +1593,10 @@
       </c>
       <c r="D4" s="8">
         <f>STDEV(A3:A101)</f>
-        <v>5.9610326734476491</v>
+        <v>5.3687752496161174</v>
       </c>
       <c r="E4" s="5">
-        <v>601</v>
+        <v>3659</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="3" t="s">
@@ -1604,18 +1604,18 @@
       </c>
       <c r="H4" s="2">
         <f>STDEV(E3:E8)</f>
-        <v>58.867365039269984</v>
+        <v>166.60332129542516</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="8"/>
       <c r="E5" s="5">
-        <v>605</v>
+        <v>3565</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1623,13 +1623,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="8"/>
       <c r="E6" s="5">
-        <v>584</v>
+        <v>3643</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1637,13 +1637,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="8"/>
       <c r="E7" s="5">
-        <v>567</v>
+        <v>3530</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1651,13 +1651,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="8"/>
       <c r="E8" s="5">
-        <v>606</v>
+        <v>3457</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1683,7 +1683,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1692,7 +1692,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1710,7 +1710,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1728,7 +1728,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -1746,7 +1746,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -1755,7 +1755,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1782,7 +1782,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1818,7 +1818,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1827,7 +1827,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -1854,7 +1854,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -1863,7 +1863,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -1872,7 +1872,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -1881,7 +1881,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -1926,7 +1926,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -1944,7 +1944,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -1998,7 +1998,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -2016,7 +2016,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -2034,7 +2034,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -2043,7 +2043,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -2052,7 +2052,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -2061,7 +2061,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -2070,7 +2070,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -2088,7 +2088,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -2115,7 +2115,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -2124,7 +2124,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -2133,7 +2133,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -2160,7 +2160,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -2169,7 +2169,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -2178,7 +2178,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -2187,7 +2187,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -2196,7 +2196,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -2205,7 +2205,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -2214,7 +2214,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -2232,7 +2232,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -2241,7 +2241,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -2277,7 +2277,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -2286,7 +2286,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -2304,7 +2304,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -2313,7 +2313,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="6">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -2322,7 +2322,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -2331,7 +2331,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -2349,7 +2349,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="6">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -2358,7 +2358,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -2376,7 +2376,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="6">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -2385,7 +2385,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -2403,7 +2403,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
@@ -2421,7 +2421,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
@@ -2430,7 +2430,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -2439,7 +2439,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="6">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -2448,7 +2448,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -2457,7 +2457,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="6">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
@@ -2466,7 +2466,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -2475,7 +2475,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -2484,7 +2484,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -2553,7 +2553,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="9" t="s">
@@ -2561,10 +2561,10 @@
       </c>
       <c r="D3" s="8">
         <f>AVERAGE(A3:A101)</f>
-        <v>111.78787878787878</v>
+        <v>114.87878787878788</v>
       </c>
       <c r="E3" s="5">
-        <v>545</v>
+        <v>1474</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="3" t="s">
@@ -2572,7 +2572,7 @@
       </c>
       <c r="H3" s="2">
         <f>AVERAGE(E3:E8)</f>
-        <v>566</v>
+        <v>1492.3333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2585,10 +2585,10 @@
       </c>
       <c r="D4" s="8">
         <f>STDEV(A3:A101)</f>
-        <v>6.4890374231495445</v>
+        <v>4.6186682577290243</v>
       </c>
       <c r="E4" s="5">
-        <v>564</v>
+        <v>1501</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="3" t="s">
@@ -2596,18 +2596,18 @@
       </c>
       <c r="H4" s="2">
         <f>STDEV(E3:E8)</f>
-        <v>14.89966442575134</v>
+        <v>21.341665039697972</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="8"/>
       <c r="E5" s="5">
-        <v>576</v>
+        <v>1472</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -2615,13 +2615,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="8"/>
       <c r="E6" s="5">
-        <v>588</v>
+        <v>1490</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -2629,13 +2629,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="8"/>
       <c r="E7" s="5">
-        <v>557</v>
+        <v>1530</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -2649,7 +2649,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="8"/>
       <c r="E8" s="5">
-        <v>566</v>
+        <v>1487</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -2666,7 +2666,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -2675,7 +2675,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2684,7 +2684,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -2693,7 +2693,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -2720,7 +2720,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -2729,7 +2729,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -2738,7 +2738,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -2747,7 +2747,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -2765,7 +2765,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -2774,7 +2774,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -2792,7 +2792,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -2810,7 +2810,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -2819,7 +2819,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -2837,7 +2837,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -2846,7 +2846,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -2864,7 +2864,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -2873,7 +2873,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -2882,7 +2882,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -2891,7 +2891,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -2900,7 +2900,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -2909,7 +2909,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -2918,7 +2918,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -2927,7 +2927,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -2936,7 +2936,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -2945,7 +2945,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -2972,7 +2972,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -2981,7 +2981,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -2990,7 +2990,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -2999,7 +2999,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -3008,7 +3008,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -3017,7 +3017,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -3026,7 +3026,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -3035,7 +3035,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -3044,7 +3044,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -3053,7 +3053,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -3062,7 +3062,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -3080,7 +3080,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -3089,7 +3089,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -3098,7 +3098,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -3107,7 +3107,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -3116,7 +3116,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -3125,7 +3125,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -3134,7 +3134,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -3152,7 +3152,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -3161,7 +3161,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -3170,7 +3170,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -3179,7 +3179,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -3188,7 +3188,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -3215,7 +3215,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -3224,7 +3224,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -3233,7 +3233,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -3242,7 +3242,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -3251,7 +3251,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -3260,7 +3260,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -3269,7 +3269,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -3278,7 +3278,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -3296,7 +3296,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -3314,7 +3314,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -3323,7 +3323,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -3332,7 +3332,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -3341,7 +3341,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="6">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -3359,7 +3359,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="6">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -3368,7 +3368,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="6">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -3377,7 +3377,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -3386,7 +3386,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -3395,7 +3395,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -3404,7 +3404,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
@@ -3413,7 +3413,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
@@ -3422,7 +3422,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -3431,7 +3431,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="6">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -3440,7 +3440,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -3449,7 +3449,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="6">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
@@ -3458,7 +3458,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -3467,7 +3467,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -3476,7 +3476,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -3485,7 +3485,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -3506,7 +3506,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A3" sqref="A3:A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3545,7 +3545,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
-        <v>2384</v>
+        <v>2067</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="9" t="s">
@@ -3553,10 +3553,10 @@
       </c>
       <c r="D3" s="8">
         <f>AVERAGE(A3:A101)</f>
-        <v>1926.9494949494949</v>
+        <v>1905.2727272727273</v>
       </c>
       <c r="E3" s="5">
-        <v>545</v>
+        <v>8214</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="3" t="s">
@@ -3564,12 +3564,12 @@
       </c>
       <c r="H3" s="2">
         <f>AVERAGE(E3:E8)</f>
-        <v>566</v>
+        <v>8025.666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
-        <v>2109</v>
+        <v>1980</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="9" t="s">
@@ -3577,10 +3577,10 @@
       </c>
       <c r="D4" s="8">
         <f>STDEV(A3:A101)</f>
-        <v>102.29004118315979</v>
+        <v>48.701468397972754</v>
       </c>
       <c r="E4" s="5">
-        <v>564</v>
+        <v>8007</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="3" t="s">
@@ -3588,18 +3588,18 @@
       </c>
       <c r="H4" s="2">
         <f>STDEV(E3:E8)</f>
-        <v>14.89966442575134</v>
+        <v>130.39120624745621</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
-        <v>2014</v>
+        <v>1951</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="8"/>
       <c r="E5" s="5">
-        <v>576</v>
+        <v>7880</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -3607,13 +3607,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
-        <v>2000</v>
+        <v>1934</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="8"/>
       <c r="E6" s="5">
-        <v>588</v>
+        <v>7979</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -3621,13 +3621,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
-        <v>1983</v>
+        <v>1937</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="8"/>
       <c r="E7" s="5">
-        <v>557</v>
+        <v>7924</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -3635,13 +3635,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
-        <v>2010</v>
+        <v>1907</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="8"/>
       <c r="E8" s="5">
-        <v>566</v>
+        <v>8150</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -3649,7 +3649,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
-        <v>1969</v>
+        <v>1909</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -3658,7 +3658,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
-        <v>1919</v>
+        <v>1888</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -3667,7 +3667,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
-        <v>2012</v>
+        <v>1907</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -3676,7 +3676,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
-        <v>2264</v>
+        <v>1899</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -3685,7 +3685,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
-        <v>2275</v>
+        <v>1895</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -3694,7 +3694,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
-        <v>2029</v>
+        <v>1868</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
-        <v>2202</v>
+        <v>1900</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -3712,7 +3712,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
-        <v>2001</v>
+        <v>1902</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -3721,7 +3721,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
-        <v>2105</v>
+        <v>1869</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -3730,7 +3730,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
-        <v>2172</v>
+        <v>1894</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -3739,7 +3739,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
-        <v>2019</v>
+        <v>1876</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -3748,7 +3748,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
-        <v>1895</v>
+        <v>1873</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -3757,7 +3757,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
-        <v>1909</v>
+        <v>1888</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -3766,7 +3766,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
-        <v>1904</v>
+        <v>1901</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -3775,7 +3775,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
-        <v>1904</v>
+        <v>1913</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -3784,7 +3784,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
-        <v>1908</v>
+        <v>1893</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -3793,7 +3793,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
-        <v>1903</v>
+        <v>1913</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -3802,7 +3802,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
-        <v>1893</v>
+        <v>1902</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -3811,7 +3811,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
-        <v>1896</v>
+        <v>1900</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -3820,7 +3820,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
-        <v>1889</v>
+        <v>1895</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -3829,7 +3829,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
-        <v>1883</v>
+        <v>1926</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -3838,7 +3838,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
-        <v>1865</v>
+        <v>1905</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -3847,7 +3847,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
-        <v>1865</v>
+        <v>1900</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -3856,7 +3856,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
-        <v>1879</v>
+        <v>1895</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -3865,7 +3865,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
-        <v>1871</v>
+        <v>1902</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -3874,7 +3874,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
-        <v>1885</v>
+        <v>1888</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -3883,7 +3883,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
-        <v>1888</v>
+        <v>1908</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -3892,7 +3892,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
-        <v>1866</v>
+        <v>1889</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
-        <v>1885</v>
+        <v>1891</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
-        <v>1871</v>
+        <v>1890</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
-        <v>1870</v>
+        <v>1874</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -3928,7 +3928,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
-        <v>1864</v>
+        <v>1902</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -3937,7 +3937,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
-        <v>1888</v>
+        <v>1891</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -3946,7 +3946,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
-        <v>1865</v>
+        <v>1887</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -3955,7 +3955,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
-        <v>1888</v>
+        <v>1951</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -3964,7 +3964,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
-        <v>1888</v>
+        <v>1899</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -3973,7 +3973,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
-        <v>1931</v>
+        <v>1881</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -3982,7 +3982,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
-        <v>1893</v>
+        <v>1982</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
-        <v>1872</v>
+        <v>1974</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -4000,7 +4000,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
-        <v>1888</v>
+        <v>1881</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -4009,7 +4009,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
-        <v>1857</v>
+        <v>1896</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
-        <v>1879</v>
+        <v>1915</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -4027,7 +4027,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
-        <v>1883</v>
+        <v>1886</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -4036,7 +4036,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
-        <v>1887</v>
+        <v>1880</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -4045,7 +4045,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
-        <v>1887</v>
+        <v>1893</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -4054,7 +4054,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
-        <v>1901</v>
+        <v>1870</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -4072,7 +4072,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
-        <v>1898</v>
+        <v>1905</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -4081,7 +4081,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
-        <v>1890</v>
+        <v>2304</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -4090,7 +4090,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
-        <v>1880</v>
+        <v>1890</v>
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -4099,7 +4099,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
-        <v>1871</v>
+        <v>1912</v>
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -4108,7 +4108,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
-        <v>1873</v>
+        <v>1909</v>
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -4117,7 +4117,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
-        <v>1876</v>
+        <v>1895</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -4126,7 +4126,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
-        <v>1893</v>
+        <v>1917</v>
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
-        <v>1878</v>
+        <v>1897</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -4144,7 +4144,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
-        <v>1856</v>
+        <v>1891</v>
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
-        <v>1890</v>
+        <v>1900</v>
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -4162,7 +4162,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -4171,7 +4171,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
-        <v>1892</v>
+        <v>1906</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -4180,7 +4180,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
-        <v>1869</v>
+        <v>1900</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -4189,7 +4189,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
-        <v>1861</v>
+        <v>1904</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -4198,7 +4198,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
-        <v>1866</v>
+        <v>1904</v>
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
-        <v>1876</v>
+        <v>1888</v>
       </c>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -4216,7 +4216,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
-        <v>1888</v>
+        <v>1906</v>
       </c>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -4225,7 +4225,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
-        <v>1864</v>
+        <v>1892</v>
       </c>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -4234,7 +4234,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
-        <v>1892</v>
+        <v>1895</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -4243,7 +4243,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
-        <v>1875</v>
+        <v>1898</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -4252,7 +4252,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
-        <v>1861</v>
+        <v>1889</v>
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -4261,7 +4261,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
-        <v>1908</v>
+        <v>1903</v>
       </c>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -4270,7 +4270,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
-        <v>1865</v>
+        <v>1909</v>
       </c>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -4288,7 +4288,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
-        <v>1882</v>
+        <v>1908</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="6">
-        <v>1868</v>
+        <v>1915</v>
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -4306,7 +4306,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
-        <v>1890</v>
+        <v>1898</v>
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -4315,7 +4315,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
-        <v>1854</v>
+        <v>1879</v>
       </c>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -4324,7 +4324,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
-        <v>1908</v>
+        <v>1921</v>
       </c>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -4333,7 +4333,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="6">
-        <v>1916</v>
+        <v>1890</v>
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -4342,7 +4342,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
-        <v>1896</v>
+        <v>1892</v>
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="6">
-        <v>1870</v>
+        <v>1906</v>
       </c>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -4360,7 +4360,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="6">
-        <v>1882</v>
+        <v>1897</v>
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -4369,7 +4369,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
-        <v>1910</v>
+        <v>1899</v>
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -4378,7 +4378,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
-        <v>1907</v>
+        <v>1857</v>
       </c>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -4387,7 +4387,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
-        <v>1959</v>
+        <v>1879</v>
       </c>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -4396,7 +4396,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
-        <v>1983</v>
+        <v>1909</v>
       </c>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
@@ -4405,7 +4405,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
-        <v>2248</v>
+        <v>1888</v>
       </c>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
@@ -4414,7 +4414,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
-        <v>2154</v>
+        <v>1889</v>
       </c>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="6">
-        <v>1938</v>
+        <v>1911</v>
       </c>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -4432,7 +4432,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
-        <v>1905</v>
+        <v>1868</v>
       </c>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -4441,7 +4441,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="6">
-        <v>1877</v>
+        <v>1897</v>
       </c>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
@@ -4450,7 +4450,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
-        <v>1887</v>
+        <v>1895</v>
       </c>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -4459,7 +4459,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
-        <v>1863</v>
+        <v>1886</v>
       </c>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -4468,7 +4468,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
-        <v>1868</v>
+        <v>1883</v>
       </c>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -4477,7 +4477,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
-        <v>1868</v>
+        <v>1877</v>
       </c>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -4537,7 +4537,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
-        <v>1622</v>
+        <v>1611</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="9" t="s">
@@ -4545,10 +4545,10 @@
       </c>
       <c r="D3" s="8">
         <f>AVERAGE(A3:A101)</f>
-        <v>1404.4444444444443</v>
+        <v>1399.5656565656566</v>
       </c>
       <c r="E3" s="5">
-        <v>3681</v>
+        <v>3691</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="3" t="s">
@@ -4556,12 +4556,12 @@
       </c>
       <c r="H3" s="2">
         <f>AVERAGE(E3:E8)</f>
-        <v>3765.6666666666665</v>
+        <v>3705.6666666666665</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
-        <v>1568</v>
+        <v>1579</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="9" t="s">
@@ -4569,10 +4569,10 @@
       </c>
       <c r="D4" s="8">
         <f>STDEV(A3:A101)</f>
-        <v>51.783738331213165</v>
+        <v>48.18441648672902</v>
       </c>
       <c r="E4" s="5">
-        <v>3858</v>
+        <v>3665</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="3" t="s">
@@ -4580,18 +4580,18 @@
       </c>
       <c r="H4" s="2">
         <f>STDEV(E3:E8)</f>
-        <v>61.779176642835466</v>
+        <v>54.807542060072969</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
-        <v>1539</v>
+        <v>1529</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="8"/>
       <c r="E5" s="5">
-        <v>3733</v>
+        <v>3761</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -4599,13 +4599,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
-        <v>1524</v>
+        <v>1470</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="8"/>
       <c r="E6" s="5">
-        <v>3737</v>
+        <v>3624</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -4613,13 +4613,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
-        <v>1483</v>
+        <v>1466</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="8"/>
       <c r="E7" s="5">
-        <v>3798</v>
+        <v>3753</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -4627,13 +4627,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
-        <v>1495</v>
+        <v>1499</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="8"/>
       <c r="E8" s="5">
-        <v>3787</v>
+        <v>3740</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -4641,7 +4641,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
-        <v>1500</v>
+        <v>1483</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -4650,7 +4650,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
-        <v>1476</v>
+        <v>1471</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -4659,7 +4659,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
-        <v>1454</v>
+        <v>1458</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -4668,7 +4668,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
-        <v>1437</v>
+        <v>1443</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -4677,7 +4677,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
-        <v>1435</v>
+        <v>1442</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -4686,7 +4686,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
-        <v>1471</v>
+        <v>1435</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
-        <v>1467</v>
+        <v>1431</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -4704,7 +4704,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
-        <v>1450</v>
+        <v>1456</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -4713,7 +4713,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
-        <v>1449</v>
+        <v>1436</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -4722,7 +4722,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
-        <v>1465</v>
+        <v>1448</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -4731,7 +4731,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
-        <v>1429</v>
+        <v>1441</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -4740,7 +4740,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -4749,7 +4749,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
-        <v>1445</v>
+        <v>1417</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -4758,7 +4758,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
-        <v>1430</v>
+        <v>1436</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -4767,7 +4767,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
-        <v>1451</v>
+        <v>1485</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -4776,7 +4776,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
-        <v>1440</v>
+        <v>1412</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -4785,7 +4785,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
-        <v>1444</v>
+        <v>1404</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -4794,7 +4794,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
-        <v>1430</v>
+        <v>1417</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -4803,7 +4803,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
-        <v>1405</v>
+        <v>1418</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -4821,7 +4821,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
-        <v>1456</v>
+        <v>1438</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -4830,7 +4830,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
-        <v>1419</v>
+        <v>1427</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -4839,7 +4839,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
-        <v>1415</v>
+        <v>1400</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -4848,7 +4848,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
-        <v>1406</v>
+        <v>1389</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -4857,7 +4857,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
-        <v>1402</v>
+        <v>1412</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -4866,7 +4866,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -4875,7 +4875,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
-        <v>1406</v>
+        <v>1392</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -4884,7 +4884,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -4893,7 +4893,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -4902,7 +4902,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -4911,7 +4911,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -4920,7 +4920,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
-        <v>1404</v>
+        <v>1395</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -4929,7 +4929,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
-        <v>1388</v>
+        <v>1396</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -4938,7 +4938,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
-        <v>1374</v>
+        <v>1388</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -4947,7 +4947,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
-        <v>1421</v>
+        <v>1399</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -4956,7 +4956,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
-        <v>1440</v>
+        <v>1419</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -4965,7 +4965,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
-        <v>1480</v>
+        <v>1405</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -4974,7 +4974,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
-        <v>1398</v>
+        <v>1393</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -4983,7 +4983,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
-        <v>1406</v>
+        <v>1400</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -4992,7 +4992,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
-        <v>1399</v>
+        <v>1410</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -5001,7 +5001,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
-        <v>1404</v>
+        <v>1413</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -5010,7 +5010,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
-        <v>1400</v>
+        <v>1415</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -5019,7 +5019,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
-        <v>1383</v>
+        <v>1412</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -5028,7 +5028,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
-        <v>1386</v>
+        <v>1381</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -5037,7 +5037,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
-        <v>1381</v>
+        <v>1388</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -5046,7 +5046,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -5055,7 +5055,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
-        <v>1389</v>
+        <v>1374</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -5064,7 +5064,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -5073,7 +5073,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -5082,7 +5082,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
-        <v>1384</v>
+        <v>1368</v>
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -5091,7 +5091,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
-        <v>1376</v>
+        <v>1366</v>
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -5100,7 +5100,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
-        <v>1382</v>
+        <v>1356</v>
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -5109,7 +5109,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
-        <v>1410</v>
+        <v>1353</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -5118,7 +5118,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
-        <v>1379</v>
+        <v>1391</v>
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -5127,7 +5127,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
-        <v>1369</v>
+        <v>1380</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -5136,7 +5136,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
-        <v>1374</v>
+        <v>1359</v>
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -5145,7 +5145,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
-        <v>1358</v>
+        <v>1367</v>
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -5163,7 +5163,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
-        <v>1383</v>
+        <v>1371</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -5172,7 +5172,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
-        <v>1365</v>
+        <v>1357</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -5181,7 +5181,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
-        <v>1380</v>
+        <v>1385</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -5190,7 +5190,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
-        <v>1350</v>
+        <v>1371</v>
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -5199,7 +5199,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
-        <v>1338</v>
+        <v>1367</v>
       </c>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -5208,7 +5208,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -5217,7 +5217,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -5226,7 +5226,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
-        <v>1379</v>
+        <v>1390</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -5235,7 +5235,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
-        <v>1360</v>
+        <v>1350</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -5244,7 +5244,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
-        <v>1361</v>
+        <v>1356</v>
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -5253,7 +5253,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -5262,7 +5262,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
-        <v>1384</v>
+        <v>1387</v>
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
@@ -5271,7 +5271,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
-        <v>1370</v>
+        <v>1361</v>
       </c>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -5280,7 +5280,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
-        <v>1388</v>
+        <v>1367</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -5289,7 +5289,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="6">
-        <v>1373</v>
+        <v>1361</v>
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -5298,7 +5298,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
-        <v>1367</v>
+        <v>1358</v>
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -5307,7 +5307,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
-        <v>1378</v>
+        <v>1362</v>
       </c>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -5316,7 +5316,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -5325,7 +5325,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="6">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -5334,7 +5334,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
-        <v>1368</v>
+        <v>1456</v>
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -5343,7 +5343,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="6">
-        <v>1350</v>
+        <v>1358</v>
       </c>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -5352,7 +5352,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="6">
-        <v>1350</v>
+        <v>1343</v>
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -5361,7 +5361,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
-        <v>1337</v>
+        <v>1350</v>
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -5370,7 +5370,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
-        <v>1343</v>
+        <v>1349</v>
       </c>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -5379,7 +5379,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -5388,7 +5388,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
-        <v>1363</v>
+        <v>1372</v>
       </c>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
@@ -5397,7 +5397,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
-        <v>1483</v>
+        <v>1368</v>
       </c>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
@@ -5424,7 +5424,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -5433,7 +5433,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="6">
-        <v>1342</v>
+        <v>1360</v>
       </c>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
@@ -5442,7 +5442,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
-        <v>1328</v>
+        <v>1341</v>
       </c>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -5451,7 +5451,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
-        <v>1361</v>
+        <v>1356</v>
       </c>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -5460,7 +5460,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
-        <v>1365</v>
+        <v>1351</v>
       </c>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -5469,7 +5469,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
-        <v>1368</v>
+        <v>1350</v>
       </c>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -5489,7 +5489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE84749-22A5-1347-8A18-58285E063705}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="234" zoomScaleNormal="234" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A101"/>
     </sheetView>
   </sheetViews>
@@ -5529,7 +5529,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
-        <v>882</v>
+        <v>831</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="9" t="s">
@@ -5537,10 +5537,10 @@
       </c>
       <c r="D3" s="8">
         <f>AVERAGE(A3:A101)</f>
-        <v>843.59595959595958</v>
+        <v>794.40404040404042</v>
       </c>
       <c r="E3" s="5">
-        <v>3009</v>
+        <v>3102</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="3" t="s">
@@ -5548,12 +5548,12 @@
       </c>
       <c r="H3" s="2">
         <f>AVERAGE(E3:E8)</f>
-        <v>3003.6666666666665</v>
+        <v>2973.1666666666665</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
-        <v>873</v>
+        <v>811</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="9" t="s">
@@ -5561,10 +5561,10 @@
       </c>
       <c r="D4" s="8">
         <f>STDEV(A3:A101)</f>
-        <v>10.024377625262389</v>
+        <v>10.17892900817434</v>
       </c>
       <c r="E4" s="5">
-        <v>3121</v>
+        <v>2969</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="3" t="s">
@@ -5572,18 +5572,18 @@
       </c>
       <c r="H4" s="2">
         <f>STDEV(E3:E8)</f>
-        <v>75.534539560830495</v>
+        <v>80.058520262784441</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
-        <v>848</v>
+        <v>800</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="8"/>
       <c r="E5" s="5">
-        <v>2967</v>
+        <v>2957</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -5591,13 +5591,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
-        <v>859</v>
+        <v>802</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="8"/>
       <c r="E6" s="5">
-        <v>3024</v>
+        <v>3018</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -5605,13 +5605,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
-        <v>847</v>
+        <v>801</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="8"/>
       <c r="E7" s="5">
-        <v>2890</v>
+        <v>2923</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -5619,13 +5619,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
-        <v>848</v>
+        <v>799</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="8"/>
       <c r="E8" s="5">
-        <v>3011</v>
+        <v>2870</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -5633,7 +5633,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
-        <v>848</v>
+        <v>803</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -5642,7 +5642,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
-        <v>848</v>
+        <v>801</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -5651,7 +5651,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
-        <v>858</v>
+        <v>806</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -5660,7 +5660,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
-        <v>855</v>
+        <v>811</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -5669,7 +5669,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
-        <v>854</v>
+        <v>806</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -5678,7 +5678,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
-        <v>836</v>
+        <v>816</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -5687,7 +5687,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
-        <v>840</v>
+        <v>805</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -5696,7 +5696,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
-        <v>845</v>
+        <v>816</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -5705,7 +5705,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
-        <v>842</v>
+        <v>815</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -5714,7 +5714,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
-        <v>844</v>
+        <v>791</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -5723,7 +5723,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
-        <v>837</v>
+        <v>810</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -5732,7 +5732,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
-        <v>854</v>
+        <v>804</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -5741,7 +5741,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
-        <v>865</v>
+        <v>796</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -5750,7 +5750,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
-        <v>849</v>
+        <v>810</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -5759,7 +5759,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
-        <v>852</v>
+        <v>795</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -5768,7 +5768,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
-        <v>846</v>
+        <v>796</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -5777,7 +5777,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
-        <v>855</v>
+        <v>795</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -5786,7 +5786,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
-        <v>838</v>
+        <v>794</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -5795,7 +5795,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
-        <v>837</v>
+        <v>802</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -5804,7 +5804,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
-        <v>823</v>
+        <v>786</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -5813,7 +5813,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
-        <v>828</v>
+        <v>790</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -5822,7 +5822,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
-        <v>841</v>
+        <v>792</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -5831,7 +5831,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
-        <v>852</v>
+        <v>791</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -5840,7 +5840,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
-        <v>851</v>
+        <v>787</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -5849,7 +5849,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
-        <v>839</v>
+        <v>802</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -5858,7 +5858,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
-        <v>845</v>
+        <v>822</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -5867,7 +5867,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
-        <v>835</v>
+        <v>781</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -5876,7 +5876,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
-        <v>849</v>
+        <v>791</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -5885,7 +5885,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
-        <v>854</v>
+        <v>796</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -5894,7 +5894,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
-        <v>844</v>
+        <v>796</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -5903,7 +5903,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
-        <v>856</v>
+        <v>810</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -5912,7 +5912,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
-        <v>832</v>
+        <v>784</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -5921,7 +5921,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
-        <v>839</v>
+        <v>798</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -5930,7 +5930,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
-        <v>836</v>
+        <v>787</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -5939,7 +5939,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
-        <v>847</v>
+        <v>791</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -5948,7 +5948,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
-        <v>847</v>
+        <v>781</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -5957,7 +5957,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
-        <v>851</v>
+        <v>789</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -5966,7 +5966,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
-        <v>835</v>
+        <v>791</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -5975,7 +5975,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
-        <v>844</v>
+        <v>780</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -5984,7 +5984,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
-        <v>831</v>
+        <v>799</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -5993,7 +5993,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
-        <v>833</v>
+        <v>788</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -6002,7 +6002,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
-        <v>833</v>
+        <v>787</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -6011,7 +6011,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
-        <v>834</v>
+        <v>772</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -6020,7 +6020,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
-        <v>847</v>
+        <v>786</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -6029,7 +6029,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
-        <v>850</v>
+        <v>790</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -6038,7 +6038,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
-        <v>832</v>
+        <v>787</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -6047,7 +6047,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
-        <v>850</v>
+        <v>798</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -6056,7 +6056,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
-        <v>847</v>
+        <v>795</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -6065,7 +6065,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
-        <v>840</v>
+        <v>787</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -6074,7 +6074,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
-        <v>836</v>
+        <v>783</v>
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -6083,7 +6083,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
-        <v>842</v>
+        <v>793</v>
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -6092,7 +6092,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
-        <v>836</v>
+        <v>788</v>
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -6101,7 +6101,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
-        <v>842</v>
+        <v>778</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -6110,7 +6110,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
-        <v>830</v>
+        <v>783</v>
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -6119,7 +6119,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
-        <v>860</v>
+        <v>795</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -6128,7 +6128,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
-        <v>846</v>
+        <v>792</v>
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -6137,7 +6137,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
-        <v>838</v>
+        <v>790</v>
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -6146,7 +6146,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
-        <v>843</v>
+        <v>803</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -6155,7 +6155,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
-        <v>847</v>
+        <v>795</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -6164,7 +6164,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
-        <v>844</v>
+        <v>783</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -6173,7 +6173,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
-        <v>846</v>
+        <v>775</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -6182,7 +6182,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
-        <v>834</v>
+        <v>788</v>
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -6191,7 +6191,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
-        <v>849</v>
+        <v>799</v>
       </c>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -6200,7 +6200,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
-        <v>831</v>
+        <v>805</v>
       </c>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -6209,7 +6209,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
-        <v>850</v>
+        <v>794</v>
       </c>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -6218,7 +6218,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
-        <v>834</v>
+        <v>795</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -6227,7 +6227,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
-        <v>838</v>
+        <v>780</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -6236,7 +6236,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
-        <v>844</v>
+        <v>790</v>
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -6245,7 +6245,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
-        <v>835</v>
+        <v>790</v>
       </c>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -6254,7 +6254,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
-        <v>847</v>
+        <v>791</v>
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
@@ -6263,7 +6263,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
-        <v>835</v>
+        <v>779</v>
       </c>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -6272,7 +6272,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
-        <v>839</v>
+        <v>796</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -6281,7 +6281,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="6">
-        <v>841</v>
+        <v>797</v>
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -6290,7 +6290,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
-        <v>826</v>
+        <v>790</v>
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -6299,7 +6299,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
-        <v>850</v>
+        <v>794</v>
       </c>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -6308,7 +6308,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
-        <v>836</v>
+        <v>789</v>
       </c>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -6317,7 +6317,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="6">
-        <v>843</v>
+        <v>804</v>
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -6326,7 +6326,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
-        <v>835</v>
+        <v>792</v>
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -6335,7 +6335,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="6">
-        <v>829</v>
+        <v>799</v>
       </c>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -6344,7 +6344,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="6">
-        <v>831</v>
+        <v>795</v>
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -6353,7 +6353,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
-        <v>838</v>
+        <v>792</v>
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -6362,7 +6362,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
-        <v>846</v>
+        <v>784</v>
       </c>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -6371,7 +6371,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
-        <v>840</v>
+        <v>785</v>
       </c>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -6380,7 +6380,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
-        <v>847</v>
+        <v>787</v>
       </c>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
@@ -6389,7 +6389,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
-        <v>844</v>
+        <v>785</v>
       </c>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
@@ -6398,7 +6398,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
-        <v>839</v>
+        <v>781</v>
       </c>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -6407,7 +6407,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="6">
-        <v>865</v>
+        <v>798</v>
       </c>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -6416,7 +6416,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
-        <v>852</v>
+        <v>791</v>
       </c>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -6425,7 +6425,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="6">
-        <v>832</v>
+        <v>792</v>
       </c>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
@@ -6434,7 +6434,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
-        <v>859</v>
+        <v>796</v>
       </c>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -6443,7 +6443,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
-        <v>832</v>
+        <v>793</v>
       </c>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -6452,7 +6452,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
-        <v>830</v>
+        <v>785</v>
       </c>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -6461,7 +6461,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
-        <v>850</v>
+        <v>802</v>
       </c>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>

--- a/Documentation/benchmark.xlsx
+++ b/Documentation/benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescomarino/Idea Projects/SABD_project1_BallettiMarino/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FDFF6A-975E-604E-B3BB-AB64016E4BA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8724E6D-A493-3E4C-A9A3-DE3B67CC5E76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40960" yWindow="-2720" windowWidth="18000" windowHeight="31540" activeTab="5" xr2:uid="{7698990D-6E27-C648-BDDB-21BCFF348DA1}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="21160" activeTab="5" xr2:uid="{7698990D-6E27-C648-BDDB-21BCFF348DA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Query 1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="8">
   <si>
     <t>Mean:</t>
   </si>
@@ -54,11 +54,23 @@
   <si>
     <t>Execution times (ms)</t>
   </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Solution costs (sum of squared intra cluster distances)</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -83,7 +95,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -99,6 +111,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -164,12 +182,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
@@ -200,10 +219,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="17" fontId="1" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="3" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="20% - Colore 2" xfId="1" builtinId="34"/>
     <cellStyle name="20% - Colore 5" xfId="2" builtinId="46"/>
+    <cellStyle name="20% - Colore 6" xfId="3" builtinId="50"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4495,19 +4527,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58DC60B9-AE2E-6548-A2D2-373468EDA4E3}">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A101"/>
+    <sheetView topLeftCell="D1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.83203125" customWidth="1"/>
     <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
@@ -4520,8 +4554,13 @@
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -4533,9 +4572,17 @@
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H2" s="17"/>
+      <c r="I2" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="19"/>
+      <c r="K2" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="16"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>1611</v>
       </c>
@@ -4554,12 +4601,19 @@
       <c r="G3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="18">
         <f>AVERAGE(E3:E8)</f>
         <v>3705.6666666666665</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" s="24">
+        <v>43831</v>
+      </c>
+      <c r="J3" s="20"/>
+      <c r="K3" s="21">
+        <v>48.827821576647999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1579</v>
       </c>
@@ -4578,12 +4632,19 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="18">
         <f>STDEV(E3:E8)</f>
         <v>54.807542060072969</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="24">
+        <v>43862</v>
+      </c>
+      <c r="J4" s="20"/>
+      <c r="K4" s="21">
+        <v>4.2571098809791801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>1529</v>
       </c>
@@ -4595,9 +4656,16 @@
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H5" s="18"/>
+      <c r="I5" s="24">
+        <v>43891</v>
+      </c>
+      <c r="J5" s="20"/>
+      <c r="K5" s="21">
+        <v>16343.1927262882</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>1470</v>
       </c>
@@ -4609,9 +4677,16 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H6" s="18"/>
+      <c r="I6" s="24">
+        <v>43922</v>
+      </c>
+      <c r="J6" s="20"/>
+      <c r="K6" s="21">
+        <v>4128.6979163011702</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>1466</v>
       </c>
@@ -4623,9 +4698,16 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H7" s="18"/>
+      <c r="I7" s="24">
+        <v>43952</v>
+      </c>
+      <c r="J7" s="20"/>
+      <c r="K7" s="21">
+        <v>3820.8464520206699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>1499</v>
       </c>
@@ -4637,9 +4719,12 @@
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H8" s="18"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>1483</v>
       </c>
@@ -4648,7 +4733,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>1471</v>
       </c>
@@ -4657,7 +4742,7 @@
       <c r="D10" s="6"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>1458</v>
       </c>
@@ -4666,7 +4751,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>1443</v>
       </c>
@@ -4675,7 +4760,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>1442</v>
       </c>
@@ -4684,7 +4769,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>1435</v>
       </c>
@@ -4693,7 +4778,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>1431</v>
       </c>
@@ -4702,7 +4787,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>1456</v>
       </c>
@@ -5477,9 +5562,10 @@
       <c r="E101" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5487,19 +5573,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE84749-22A5-1347-8A18-58285E063705}">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="234" zoomScaleNormal="234" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A101"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" customWidth="1"/>
+    <col min="11" max="11" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
@@ -5512,8 +5600,13 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -5526,8 +5619,15 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="19"/>
+      <c r="K2" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>831</v>
       </c>
@@ -5550,8 +5650,15 @@
         <f>AVERAGE(E3:E8)</f>
         <v>2973.1666666666665</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" s="24">
+        <v>43831</v>
+      </c>
+      <c r="J3" s="20"/>
+      <c r="K3" s="21">
+        <v>48.827821576647999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>811</v>
       </c>
@@ -5574,8 +5681,15 @@
         <f>STDEV(E3:E8)</f>
         <v>80.058520262784441</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="24">
+        <v>43862</v>
+      </c>
+      <c r="J4" s="20"/>
+      <c r="K4" s="21">
+        <v>4.2190678645824597</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>800</v>
       </c>
@@ -5588,8 +5702,15 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="24">
+        <v>43891</v>
+      </c>
+      <c r="J5" s="20"/>
+      <c r="K5" s="21">
+        <v>16343.1927262881</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>802</v>
       </c>
@@ -5602,8 +5723,15 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="24">
+        <v>43922</v>
+      </c>
+      <c r="J6" s="20"/>
+      <c r="K6" s="21">
+        <v>4128.6979163011702</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>801</v>
       </c>
@@ -5616,8 +5744,15 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" s="24">
+        <v>43952</v>
+      </c>
+      <c r="J7" s="20"/>
+      <c r="K7" s="21">
+        <v>3820.8464520206699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>799</v>
       </c>
@@ -5630,8 +5765,11 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="25"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>803</v>
       </c>
@@ -5640,7 +5778,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>801</v>
       </c>
@@ -5649,7 +5787,7 @@
       <c r="D10" s="6"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>806</v>
       </c>
@@ -5658,7 +5796,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>811</v>
       </c>
@@ -5667,7 +5805,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>806</v>
       </c>
@@ -5676,7 +5814,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>816</v>
       </c>
@@ -5685,7 +5823,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>805</v>
       </c>
@@ -5694,7 +5832,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>816</v>
       </c>
@@ -6469,9 +6607,10 @@
       <c r="E101" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/benchmark.xlsx
+++ b/Documentation/benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescomarino/Idea Projects/SABD_project1_BallettiMarino/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8724E6D-A493-3E4C-A9A3-DE3B67CC5E76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF35D064-B111-7C40-A5C4-7B55BFC11054}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="21160" activeTab="5" xr2:uid="{7698990D-6E27-C648-BDDB-21BCFF348DA1}"/>
+    <workbookView xWindow="40960" yWindow="-2720" windowWidth="18000" windowHeight="31540" activeTab="1" xr2:uid="{7698990D-6E27-C648-BDDB-21BCFF348DA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Query 1" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -204,6 +204,18 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="17" fontId="1" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -219,18 +231,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="17" fontId="1" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="3" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Colore 2" xfId="1" builtinId="34"/>
@@ -569,18 +569,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="12" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -1550,8 +1550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3568F8A9-1913-3E4A-8996-5367E471A783}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A101"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1564,18 +1564,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="12" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -1593,7 +1593,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
-        <v>58</v>
+        <v>935</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="9" t="s">
@@ -1601,10 +1601,10 @@
       </c>
       <c r="D3" s="8">
         <f>AVERAGE(A3:A101)</f>
-        <v>35.484848484848484</v>
+        <v>775.27272727272725</v>
       </c>
       <c r="E3" s="5">
-        <v>3936</v>
+        <v>6452</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="3" t="s">
@@ -1612,12 +1612,12 @@
       </c>
       <c r="H3" s="2">
         <f>AVERAGE(E3:E8)</f>
-        <v>3631.6666666666665</v>
+        <v>6229</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
-        <v>45</v>
+        <v>867</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="9" t="s">
@@ -1625,10 +1625,10 @@
       </c>
       <c r="D4" s="8">
         <f>STDEV(A3:A101)</f>
-        <v>5.3687752496161174</v>
+        <v>24.556398302440975</v>
       </c>
       <c r="E4" s="5">
-        <v>3659</v>
+        <v>6177</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="3" t="s">
@@ -1636,18 +1636,18 @@
       </c>
       <c r="H4" s="2">
         <f>STDEV(E3:E8)</f>
-        <v>166.60332129542516</v>
+        <v>147.61436244485157</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
-        <v>49</v>
+        <v>858</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="8"/>
       <c r="E5" s="5">
-        <v>3565</v>
+        <v>6125</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1655,13 +1655,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
-        <v>48</v>
+        <v>825</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="8"/>
       <c r="E6" s="5">
-        <v>3643</v>
+        <v>6377</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1669,13 +1669,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
-        <v>45</v>
+        <v>822</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="8"/>
       <c r="E7" s="5">
-        <v>3530</v>
+        <v>6140</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1683,13 +1683,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
-        <v>40</v>
+        <v>794</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="8"/>
       <c r="E8" s="5">
-        <v>3457</v>
+        <v>6103</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
-        <v>40</v>
+        <v>772</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
-        <v>35</v>
+        <v>790</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1715,7 +1715,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
-        <v>40</v>
+        <v>775</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
-        <v>40</v>
+        <v>791</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
-        <v>41</v>
+        <v>758</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1742,7 +1742,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
-        <v>34</v>
+        <v>791</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1751,7 +1751,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
-        <v>40</v>
+        <v>773</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1760,7 +1760,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
-        <v>37</v>
+        <v>760</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1769,7 +1769,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
-        <v>40</v>
+        <v>779</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
-        <v>44</v>
+        <v>797</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -1787,7 +1787,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
-        <v>36</v>
+        <v>782</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1796,7 +1796,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
-        <v>34</v>
+        <v>775</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
-        <v>41</v>
+        <v>780</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1814,7 +1814,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
-        <v>33</v>
+        <v>761</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
-        <v>37</v>
+        <v>776</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -1832,7 +1832,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
-        <v>35</v>
+        <v>782</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1841,7 +1841,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
-        <v>40</v>
+        <v>770</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1850,7 +1850,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
-        <v>46</v>
+        <v>769</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1859,7 +1859,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
-        <v>39</v>
+        <v>766</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
-        <v>33</v>
+        <v>767</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
-        <v>34</v>
+        <v>774</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1886,7 +1886,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
-        <v>32</v>
+        <v>769</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
-        <v>36</v>
+        <v>761</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
-        <v>32</v>
+        <v>781</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -1913,7 +1913,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
-        <v>38</v>
+        <v>769</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -1922,7 +1922,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
-        <v>32</v>
+        <v>778</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -1931,7 +1931,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
-        <v>34</v>
+        <v>774</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1940,7 +1940,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
-        <v>34</v>
+        <v>771</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -1949,7 +1949,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
-        <v>34</v>
+        <v>781</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1958,7 +1958,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
-        <v>33</v>
+        <v>763</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
-        <v>35</v>
+        <v>758</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -1976,7 +1976,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
-        <v>32</v>
+        <v>782</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -1985,7 +1985,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
-        <v>52</v>
+        <v>761</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
-        <v>31</v>
+        <v>756</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
-        <v>34</v>
+        <v>773</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
-        <v>32</v>
+        <v>768</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -2021,7 +2021,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
-        <v>36</v>
+        <v>755</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
-        <v>32</v>
+        <v>782</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
-        <v>36</v>
+        <v>767</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -2048,7 +2048,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
-        <v>31</v>
+        <v>774</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -2057,7 +2057,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
-        <v>34</v>
+        <v>758</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
-        <v>33</v>
+        <v>768</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -2075,7 +2075,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
-        <v>34</v>
+        <v>772</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -2084,7 +2084,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
-        <v>31</v>
+        <v>772</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -2093,7 +2093,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
-        <v>37</v>
+        <v>766</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -2102,7 +2102,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
-        <v>30</v>
+        <v>772</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
-        <v>39</v>
+        <v>770</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -2120,7 +2120,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
-        <v>31</v>
+        <v>774</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
-        <v>35</v>
+        <v>760</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
-        <v>31</v>
+        <v>766</v>
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -2147,7 +2147,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
-        <v>36</v>
+        <v>753</v>
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
-        <v>30</v>
+        <v>760</v>
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -2165,7 +2165,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
-        <v>34</v>
+        <v>758</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -2174,7 +2174,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
-        <v>31</v>
+        <v>764</v>
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
-        <v>35</v>
+        <v>769</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -2192,7 +2192,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
-        <v>31</v>
+        <v>750</v>
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -2201,7 +2201,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
-        <v>34</v>
+        <v>774</v>
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -2210,7 +2210,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
-        <v>33</v>
+        <v>784</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -2219,7 +2219,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
-        <v>36</v>
+        <v>771</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -2228,7 +2228,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
-        <v>31</v>
+        <v>779</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -2237,7 +2237,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
-        <v>50</v>
+        <v>773</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
-        <v>32</v>
+        <v>765</v>
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
-        <v>34</v>
+        <v>759</v>
       </c>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -2264,7 +2264,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
-        <v>31</v>
+        <v>756</v>
       </c>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
-        <v>36</v>
+        <v>761</v>
       </c>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
-        <v>32</v>
+        <v>770</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -2291,7 +2291,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
-        <v>34</v>
+        <v>762</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -2300,7 +2300,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
-        <v>43</v>
+        <v>760</v>
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -2309,7 +2309,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
-        <v>33</v>
+        <v>772</v>
       </c>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -2318,7 +2318,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
-        <v>32</v>
+        <v>766</v>
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
-        <v>33</v>
+        <v>767</v>
       </c>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -2336,7 +2336,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
-        <v>31</v>
+        <v>764</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -2345,7 +2345,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="6">
-        <v>34</v>
+        <v>764</v>
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -2354,7 +2354,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
-        <v>30</v>
+        <v>784</v>
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -2363,7 +2363,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
-        <v>34</v>
+        <v>774</v>
       </c>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -2372,7 +2372,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
-        <v>31</v>
+        <v>758</v>
       </c>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -2381,7 +2381,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="6">
-        <v>34</v>
+        <v>765</v>
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -2390,7 +2390,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
-        <v>30</v>
+        <v>772</v>
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="6">
-        <v>37</v>
+        <v>772</v>
       </c>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="6">
-        <v>31</v>
+        <v>765</v>
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -2417,7 +2417,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
-        <v>34</v>
+        <v>771</v>
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -2426,7 +2426,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
-        <v>30</v>
+        <v>770</v>
       </c>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -2435,7 +2435,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
-        <v>33</v>
+        <v>828</v>
       </c>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -2444,7 +2444,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
-        <v>30</v>
+        <v>775</v>
       </c>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
-        <v>34</v>
+        <v>773</v>
       </c>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
@@ -2462,7 +2462,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
-        <v>30</v>
+        <v>767</v>
       </c>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="6">
-        <v>32</v>
+        <v>756</v>
       </c>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -2480,7 +2480,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
-        <v>44</v>
+        <v>766</v>
       </c>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -2489,7 +2489,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="6">
-        <v>34</v>
+        <v>761</v>
       </c>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
@@ -2498,7 +2498,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
-        <v>30</v>
+        <v>782</v>
       </c>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -2507,7 +2507,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
-        <v>32</v>
+        <v>768</v>
       </c>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -2516,7 +2516,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
-        <v>29</v>
+        <v>786</v>
       </c>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -2525,7 +2525,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
-        <v>33</v>
+        <v>768</v>
       </c>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -2556,18 +2556,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="12" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -3548,18 +3548,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="12" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -4542,23 +4542,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="12" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="12" t="s">
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -4572,15 +4572,15 @@
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="23" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="22" t="s">
+      <c r="J2" s="14"/>
+      <c r="K2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="16"/>
+      <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
@@ -4601,15 +4601,15 @@
       <c r="G3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="13">
         <f>AVERAGE(E3:E8)</f>
         <v>3705.6666666666665</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="19">
         <v>43831</v>
       </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="21">
+      <c r="J3" s="15"/>
+      <c r="K3" s="16">
         <v>48.827821576647999</v>
       </c>
     </row>
@@ -4632,15 +4632,15 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="13">
         <f>STDEV(E3:E8)</f>
         <v>54.807542060072969</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="19">
         <v>43862</v>
       </c>
-      <c r="J4" s="20"/>
-      <c r="K4" s="21">
+      <c r="J4" s="15"/>
+      <c r="K4" s="16">
         <v>4.2571098809791801</v>
       </c>
     </row>
@@ -4656,12 +4656,12 @@
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="24">
+      <c r="H5" s="13"/>
+      <c r="I5" s="19">
         <v>43891</v>
       </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="21">
+      <c r="J5" s="15"/>
+      <c r="K5" s="16">
         <v>16343.1927262882</v>
       </c>
     </row>
@@ -4677,12 +4677,12 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="24">
+      <c r="H6" s="13"/>
+      <c r="I6" s="19">
         <v>43922</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="21">
+      <c r="J6" s="15"/>
+      <c r="K6" s="16">
         <v>4128.6979163011702</v>
       </c>
     </row>
@@ -4698,12 +4698,12 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="24">
+      <c r="H7" s="13"/>
+      <c r="I7" s="19">
         <v>43952</v>
       </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="21">
+      <c r="J7" s="15"/>
+      <c r="K7" s="16">
         <v>3820.8464520206699</v>
       </c>
     </row>
@@ -4719,10 +4719,10 @@
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
@@ -5575,7 +5575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE84749-22A5-1347-8A18-58285E063705}">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -5588,23 +5588,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="12" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="12" t="s">
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -5619,11 +5619,11 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="22" t="s">
+      <c r="J2" s="14"/>
+      <c r="K2" s="17" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5650,11 +5650,11 @@
         <f>AVERAGE(E3:E8)</f>
         <v>2973.1666666666665</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="19">
         <v>43831</v>
       </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="21">
+      <c r="J3" s="15"/>
+      <c r="K3" s="16">
         <v>48.827821576647999</v>
       </c>
     </row>
@@ -5681,11 +5681,11 @@
         <f>STDEV(E3:E8)</f>
         <v>80.058520262784441</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="19">
         <v>43862</v>
       </c>
-      <c r="J4" s="20"/>
-      <c r="K4" s="21">
+      <c r="J4" s="15"/>
+      <c r="K4" s="16">
         <v>4.2190678645824597</v>
       </c>
     </row>
@@ -5702,11 +5702,11 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="24">
+      <c r="I5" s="19">
         <v>43891</v>
       </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="21">
+      <c r="J5" s="15"/>
+      <c r="K5" s="16">
         <v>16343.1927262881</v>
       </c>
     </row>
@@ -5723,11 +5723,11 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="24">
+      <c r="I6" s="19">
         <v>43922</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="21">
+      <c r="J6" s="15"/>
+      <c r="K6" s="16">
         <v>4128.6979163011702</v>
       </c>
     </row>
@@ -5744,11 +5744,11 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="24">
+      <c r="I7" s="19">
         <v>43952</v>
       </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="21">
+      <c r="J7" s="15"/>
+      <c r="K7" s="16">
         <v>3820.8464520206699</v>
       </c>
     </row>
@@ -5765,9 +5765,9 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
